--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEF509-3FE8-4F95-B315-DB59277BBB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -331,13 +385,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E087AC7-9F07-430E-A6F8-F993C5BEF3C1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Бобов</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Алганов</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Могирева</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Возвахова</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Главизнина</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Магазина</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Лагутичев</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Сакрюкин</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Трухачев</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Раньков</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Тисельская</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Кулова</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Мокасеева</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Котрохов</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Бадогов</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -1,88 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CED375-5A68-4448-9893-216EFF4C094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Новахов</t>
-  </si>
-  <si>
-    <t>Яцева</t>
-  </si>
-  <si>
-    <t>Китнецов</t>
-  </si>
-  <si>
-    <t>Ваддоров</t>
-  </si>
-  <si>
-    <t>Щепоткин</t>
-  </si>
-  <si>
-    <t>Скородумов</t>
-  </si>
-  <si>
-    <t>Шапров</t>
-  </si>
-  <si>
-    <t>Светлкова</t>
-  </si>
-  <si>
-    <t>Мерздикина</t>
-  </si>
-  <si>
-    <t>Кронов</t>
-  </si>
-  <si>
-    <t>Сезунов</t>
-  </si>
-  <si>
-    <t>Бандуков</t>
-  </si>
-  <si>
-    <t>Ошибкин</t>
-  </si>
-  <si>
-    <t>Сыропатова</t>
-  </si>
-  <si>
-    <t>Духинов</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,181 +385,575 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P21" sqref="D1:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Холсин</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Мязин</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Стромский</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Тухватова</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Килбанов</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Зимичев</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Мажаров</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Вшивкина</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Феклисов</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Муллояров</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Стегалкин</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Сивридкина</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Чуршуков</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Гонорецкий</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Серебриева</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -390,21 +392,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="D1:P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Холсин</t>
+          <t>Стаферова</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -414,297 +416,177 @@
         <v>7</v>
       </c>
       <c r="D1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H1" t="n">
         <v>5</v>
-      </c>
-      <c r="I1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K1" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Мязин</t>
+          <t>Ромов</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Стромский</t>
+          <t>Шамашов</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Тухватова</t>
+          <t>Аптухова</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
       <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
         <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Килбанов</t>
+          <t>Стаферова</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Зимичев</t>
+          <t>Леликова</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Мажаров</t>
+          <t>Гоздевский</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
         <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Вшивкина</t>
+          <t>Завроцкий</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
         <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Феклисов</t>
+          <t>Стаферова</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
@@ -713,250 +595,182 @@
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Муллояров</t>
+          <t>Аптухова</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Стегалкин</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Сивридкина</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Чуршуков</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Гонорецкий</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Серебриева</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Аптухова</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Гоздевский</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Дивишина</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Завроцкий</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Кодина</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Кузярина</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Леликова</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ромов</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Стаферова</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Унукова</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Шамашов</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476A4F6-D738-4412-8DCA-F403B1100CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -335,18 +385,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="A1:H16"/>
+      <selection activeCell="H19" sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Обязов</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Саустеева</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Душин</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Таликонина</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Баркаров</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Себелев</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Дрянин</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Лесничков</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Близнакова</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Солодаев</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Кудабаева</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Корзов</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Сапянова</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Лычев</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ротмина</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -404,137 +405,137 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Обязов</t>
+          <t>Клеченова</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
         <v>4</v>
       </c>
       <c r="D1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Саустеева</t>
+          <t>Чевилева</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Душин</t>
+          <t>Затимов</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Таликонина</t>
+          <t>Негинский</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -543,155 +544,155 @@
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Баркаров</t>
+          <t>Закатеев</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>6</v>
-      </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Себелев</t>
+          <t>Доверова</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Дрянин</t>
+          <t>Пасенков</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Лесничков</t>
+          <t>Яшалев</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
         <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -700,109 +701,109 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Близнакова</t>
+          <t>Остров</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Солодаев</t>
+          <t>Рымынов</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
         <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кудабаева</t>
+          <t>Альмевский</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>7</v>
@@ -811,109 +812,109 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Корзов</t>
+          <t>Нашатырева</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Сапянова</t>
+          <t>Шестов</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Лычев</t>
+          <t>Блиева</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
         <v>3</v>
       </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -922,41 +923,345 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ротмина</t>
+          <t>Дрякина</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Баркаров</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Близнакова</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Дрянин</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Душин</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Корзов</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Кудабаева</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Лесничков</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Лычев</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Обязов</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ротмина</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Сапянова</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Саустеева</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Себелев</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Солодаев</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Таликонина</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -979,55 +979,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Баркаров</t>
+          <t>Альмевский</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="E1" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Близнакова</t>
+          <t>Блиева</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Дрянин</t>
+          <t>Доверова</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -1036,26 +1036,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Душин</t>
+          <t>Дрякина</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Корзов</t>
+          <t>Закатеев</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1065,35 +1065,35 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кудабаева</t>
+          <t>Затимов</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Лесничков</t>
+          <t>Клеченова</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1103,73 +1103,73 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Лычев</t>
+          <t>Нашатырева</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Обязов</t>
+          <t>Негинский</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ротмина</t>
+          <t>Остров</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Сапянова</t>
+          <t>Пасенков</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1179,26 +1179,26 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Саустеева</t>
+          <t>Рымынов</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E12" t="n">
         <v>2.5</v>
@@ -1207,26 +1207,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Себелев</t>
+          <t>Чевилева</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="E13" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Солодаев</t>
+          <t>Шестов</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1236,29 +1236,29 @@
         <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="E14" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Таликонина</t>
+          <t>Яшалев</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>5.4</v>
       </c>
       <c r="E15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -394,7 +393,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="A1:H19"/>
+      <selection activeCell="H19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -405,294 +404,294 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Клеченова</t>
+          <t>Шелиханов</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Чевилева</t>
+          <t>Алхимов</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Затимов</t>
+          <t>Ильчишин</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Негинский</t>
+          <t>Кузьмиков</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Закатеев</t>
+          <t>Яруллина</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Доверова</t>
+          <t>Нужнов</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Пасенков</t>
+          <t>Коватьев</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Яшалев</t>
+          <t>Назарлина</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -701,60 +700,60 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Остров</t>
+          <t>Гредасов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Рымынов</t>
+          <t>Губаренков</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -763,505 +762,201 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Альмевский</t>
+          <t>Двойнов</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Нашатырева</t>
+          <t>Джибилова</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Шестов</t>
+          <t>Кутбеева</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Блиева</t>
+          <t>Канурина</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Дрякина</t>
+          <t>Варварин</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Альмевский</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E1" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Блиева</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Доверова</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Дрякина</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Закатеев</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Затимов</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Клеченова</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Нашатырева</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Негинский</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Остров</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Пасенков</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Рымынов</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Чевилева</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Шестов</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Яшалев</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -404,72 +405,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Шелиханов</t>
+          <t>Работников</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1" t="n">
         <v>8</v>
       </c>
-      <c r="D1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" t="n">
-        <v>7</v>
-      </c>
       <c r="J1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Алхимов</t>
+          <t>Загорбинин</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -478,254 +479,254 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ильчишин</t>
+          <t>Яничкина</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кузьмиков</t>
+          <t>Горяшин</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Яруллина</t>
+          <t>Лазайкина</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Нужнов</t>
+          <t>Катцына</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Коватьев</t>
+          <t>Абаков</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Назарлина</t>
+          <t>Пожилов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Гредасов</t>
+          <t>Яшечкина</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -737,220 +738,220 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Губаренков</t>
+          <t>Сигурова</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Двойнов</t>
+          <t>Дитятева</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9</v>
-      </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Джибилова</t>
+          <t>Равенских</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кутбеева</t>
+          <t>Гатейкина</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
         <v>8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Канурина</t>
+          <t>Асиновский</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Варварин</t>
+          <t>Брюхнова</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -959,4 +960,308 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Абаков</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Асиновский</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Брюхнова</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Гатейкина</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Горяшин</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Дитятева</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Загорбинин</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Катцына</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Лазайкина</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Пожилов</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Работников</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Равенских</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Сигурова</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Яничкина</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Яшечкина</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -405,146 +405,146 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Работников</t>
+          <t>Гневшина</t>
         </is>
       </c>
       <c r="B1" t="n">
         <v>4</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Загорбинин</t>
+          <t>Акиджева</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Яничкина</t>
+          <t>Углев</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Горяшин</t>
+          <t>Фоломеев</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -553,146 +553,146 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Лазайкина</t>
+          <t>Пархалина</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Катцына</t>
+          <t>Ховренков</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Абаков</t>
+          <t>Кубартов</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Пожилов</t>
+          <t>Фивейский</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -701,211 +701,211 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Яшечкина</t>
+          <t>Кросинская</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Сигурова</t>
+          <t>Гарабин</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Дитятева</t>
+          <t>Паршинщева</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Равенских</t>
+          <t>Питулкина</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Гатейкина</t>
+          <t>Аксютова</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Асиновский</t>
+          <t>Трекин</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -914,32 +914,32 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Брюхнова</t>
+          <t>Даншин</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -948,13 +948,13 @@
         <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -979,26 +979,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Абаков</t>
+          <t>Акиджева</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="E1" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Асиновский</t>
+          <t>Аксютова</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1008,54 +1008,54 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Брюхнова</t>
+          <t>Гарабин</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Гатейкина</t>
+          <t>Гневшина</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Горяшин</t>
+          <t>Даншин</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1065,16 +1065,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="E5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Дитятева</t>
+          <t>Кросинская</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1084,35 +1084,35 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Загорбинин</t>
+          <t>Кубартов</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="E7" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Катцына</t>
+          <t>Пархалина</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1122,64 +1122,64 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Лазайкина</t>
+          <t>Паршинщева</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Пожилов</t>
+          <t>Питулкина</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="E10" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Работников</t>
+          <t>Трекин</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1188,17 +1188,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Равенских</t>
+          <t>Углев</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -1207,55 +1207,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Сигурова</t>
+          <t>Фивейский</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Яничкина</t>
+          <t>Фоломеев</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="E14" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Яшечкина</t>
+          <t>Ховренков</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="E15" t="n">
         <v>5.5</v>

--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -405,396 +405,396 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Гневшина</t>
+          <t>Щетилина</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="n">
         <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Акиджева</t>
+          <t>Усламин</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Углев</t>
+          <t>Армянин</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Фоломеев</t>
+          <t>Ясиновский</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Пархалина</t>
+          <t>Чикмасова</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ховренков</t>
+          <t>Сачкова</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кубартов</t>
+          <t>Зиновьева</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Фивейский</t>
+          <t>Латкасова</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кросинская</t>
+          <t>Сухатская</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Гарабин</t>
+          <t>Хосина</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Паршинщева</t>
+          <t>Фукин</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -803,155 +803,155 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Питулкина</t>
+          <t>Коктев</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>6</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Аксютова</t>
+          <t>Петрешов</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Трекин</t>
+          <t>Гожин</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Даншин</t>
+          <t>Аверклева</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -979,7 +979,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Акиджева</t>
+          <t>Аверклева</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -989,83 +989,83 @@
         <v>9</v>
       </c>
       <c r="D1" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="E1" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Аксютова</t>
+          <t>Армянин</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Гарабин</t>
+          <t>Гожин</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Гневшина</t>
+          <t>Зиновьева</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Даншин</t>
+          <t>Коктев</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -1074,55 +1074,55 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кросинская</t>
+          <t>Латкасова</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кубартов</t>
+          <t>Петрешов</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Пархалина</t>
+          <t>Сачкова</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="E8" t="n">
         <v>5.5</v>
@@ -1131,83 +1131,83 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Паршинщева</t>
+          <t>Сухатская</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Питулкина</t>
+          <t>Усламин</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Трекин</t>
+          <t>Фукин</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Углев</t>
+          <t>Хосина</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Фивейский</t>
+          <t>Чикмасова</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1217,48 +1217,48 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Фоломеев</t>
+          <t>Щетилина</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ховренков</t>
+          <t>Ясиновский</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="E15" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -968,7 +968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,6 +1261,25 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ИТОГО</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -405,455 +405,455 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Щетилина</t>
+          <t>Гульдеев</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="n">
         <v>7</v>
       </c>
       <c r="E1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>9</v>
-      </c>
       <c r="H1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Усламин</t>
+          <t>Карисов</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Армянин</t>
+          <t>Курсинова</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ясиновский</t>
+          <t>Дюткин</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Чикмасова</t>
+          <t>Костылев</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сачкова</t>
+          <t>Гурькина</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Зиновьева</t>
+          <t>Феляков</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Латкасова</t>
+          <t>Мендлина</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
         <v>8</v>
       </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Сухатская</t>
+          <t>Киташкина</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Хосина</t>
+          <t>Хорошин</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Фукин</t>
+          <t>Ульянихин</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Коктев</t>
+          <t>Егапов</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Петрешов</t>
+          <t>Патышнев</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
@@ -862,99 +862,99 @@
         <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Гожин</t>
+          <t>Гавриличев</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Аверклева</t>
+          <t>Збризская</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -979,131 +979,131 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Аверклева</t>
+          <t>Гавриличев</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="n">
         <v>9</v>
       </c>
       <c r="D1" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Армянин</t>
+          <t>Гульдеев</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="E2" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Гожин</t>
+          <t>Гурькина</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Зиновьева</t>
+          <t>Дюткин</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Коктев</t>
+          <t>Егапов</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Латкасова</t>
+          <t>Збризская</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Петрешов</t>
+          <t>Карисов</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -1112,26 +1112,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Сачкова</t>
+          <t>Киташкина</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Сухатская</t>
+          <t>Костылев</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1141,64 +1141,64 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Усламин</t>
+          <t>Курсинова</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="E10" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Фукин</t>
+          <t>Мендлина</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Хосина</t>
+          <t>Патышнев</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="E12" t="n">
         <v>4.5</v>
@@ -1207,58 +1207,58 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Чикмасова</t>
+          <t>Ульянихин</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="E13" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Щетилина</t>
+          <t>Феляков</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="E14" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ясиновский</t>
+          <t>Хорошин</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16">
@@ -1274,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-3.xlsx
+++ b/Task_10/task_10-3.xlsx
@@ -8,6 +8,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист21" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Лист22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Лист23" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1283,4 +1286,58 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>